--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/trans/srpbvt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4341882C-AFAF-5F42-A2B2-44940B546388}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26780" windowHeight="10720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -268,6 +269,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,24 +550,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="5">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,234 +578,234 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -808,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
@@ -818,12 +823,12 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -864,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -905,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -946,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -987,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>

--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/trans/srpbvt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/srpbvt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4341882C-AFAF-5F42-A2B2-44940B546388}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688AB9AD-17DA-1146-8C86-0C9F098A53E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26780" windowHeight="10720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
